--- a/runs/run088/NotionalETEOutput088.xlsx
+++ b/runs/run088/NotionalETEOutput088.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX3_State_Update</t>
+    <t>Missile_BRAVER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3_391.MISSILE_ANGERMAX3_391</t>
+    <t>MISSILE_BRAVER1_320.MISSILE_BRAVER1_320</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3</t>
+    <t>MISSILE_BRAVER1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1475.468266373249</v>
+        <v>-1426.905238732</v>
       </c>
       <c r="J2">
-        <v>2021.367891154569</v>
+        <v>2032.390109244931</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1509.808126171067</v>
+        <v>-1543.685957557822</v>
       </c>
       <c r="J3">
-        <v>1905.993168107824</v>
+        <v>1901.332025876782</v>
       </c>
       <c r="K3">
-        <v>316.0096780441618</v>
+        <v>291.9240692991193</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1417.706841959314</v>
+        <v>-1505.92495576682</v>
       </c>
       <c r="J4">
-        <v>1830.887210842768</v>
+        <v>1899.984553927335</v>
       </c>
       <c r="K4">
-        <v>609.6332989946793</v>
+        <v>600.8774607394997</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1393.758422525892</v>
+        <v>-1448.364270201287</v>
       </c>
       <c r="J5">
-        <v>1875.629449370311</v>
+        <v>1908.017202331661</v>
       </c>
       <c r="K5">
-        <v>869.6116690804005</v>
+        <v>846.3652685530897</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1419.936953613434</v>
+        <v>-1339.15844343903</v>
       </c>
       <c r="J6">
-        <v>1773.55352931631</v>
+        <v>1746.688662422351</v>
       </c>
       <c r="K6">
-        <v>1178.258873503456</v>
+        <v>1177.995015513526</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1318.245867148453</v>
+        <v>-1356.725180901045</v>
       </c>
       <c r="J7">
-        <v>1802.777808489697</v>
+        <v>1714.861947533527</v>
       </c>
       <c r="K7">
-        <v>1375.256714843622</v>
+        <v>1324.484604049398</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1355.12303049838</v>
+        <v>-1246.454999883799</v>
       </c>
       <c r="J8">
-        <v>1630.031112432826</v>
+        <v>1770.509538837789</v>
       </c>
       <c r="K8">
-        <v>1545.46278903567</v>
+        <v>1587.329596386454</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-100.4721193720347</v>
+        <v>-101.379700844024</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1325.306395857035</v>
+        <v>-1301.561827401812</v>
       </c>
       <c r="J9">
-        <v>1699.396366906595</v>
+        <v>1715.23707418174</v>
       </c>
       <c r="K9">
-        <v>1887.071412343055</v>
+        <v>1844.309388403113</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>207.6167266608801</v>
+        <v>212.9720810514605</v>
       </c>
       <c r="G10">
-        <v>-81.68196856996445</v>
+        <v>-83.55784864445501</v>
       </c>
       <c r="H10">
-        <v>890.8961567879094</v>
+        <v>870.1432346213475</v>
       </c>
       <c r="I10">
-        <v>-1237.103326345754</v>
+        <v>-1274.915492958082</v>
       </c>
       <c r="J10">
-        <v>1586.639424292065</v>
+        <v>1591.805951172684</v>
       </c>
       <c r="K10">
-        <v>2082.248034126218</v>
+        <v>2034.42253379667</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.3076394434756</v>
+        <v>162.1148651261161</v>
       </c>
       <c r="G11">
-        <v>-65.57792702667659</v>
+        <v>-64.12072679927698</v>
       </c>
       <c r="H11">
-        <v>1061.207553247596</v>
+        <v>1010.74947103821</v>
       </c>
       <c r="I11">
-        <v>-1257.819810560822</v>
+        <v>-1170.217012036258</v>
       </c>
       <c r="J11">
-        <v>1598.52623559675</v>
+        <v>1600.813558922905</v>
       </c>
       <c r="K11">
-        <v>2192.310148774624</v>
+        <v>2254.275030771995</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>135.468643246231</v>
+        <v>138.4955113204255</v>
       </c>
       <c r="G12">
-        <v>-52.20495310412397</v>
+        <v>-49.00181866925874</v>
       </c>
       <c r="H12">
-        <v>1226.281861998414</v>
+        <v>1134.983656348032</v>
       </c>
       <c r="I12">
-        <v>-1158.467753529333</v>
+        <v>-1156.171061908883</v>
       </c>
       <c r="J12">
-        <v>1488.15914451499</v>
+        <v>1574.150947942807</v>
       </c>
       <c r="K12">
-        <v>2308.713085291008</v>
+        <v>2276.027053604302</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.8016171110885</v>
+        <v>121.5362625021265</v>
       </c>
       <c r="G13">
-        <v>-35.30279856374407</v>
+        <v>-32.360265946778</v>
       </c>
       <c r="H13">
-        <v>1298.66705141248</v>
+        <v>1274.424576620471</v>
       </c>
       <c r="I13">
-        <v>-1140.347846363784</v>
+        <v>-1130.629807616321</v>
       </c>
       <c r="J13">
-        <v>1443.039649337586</v>
+        <v>1420.856290745702</v>
       </c>
       <c r="K13">
-        <v>2467.124259913816</v>
+        <v>2425.357756240412</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>113.6965008840412</v>
+        <v>111.3840500454274</v>
       </c>
       <c r="G14">
-        <v>-17.46146990738106</v>
+        <v>-16.68714462241525</v>
       </c>
       <c r="H14">
-        <v>1325.89034508078</v>
+        <v>1359.126001081779</v>
       </c>
       <c r="I14">
-        <v>-1079.971594979696</v>
+        <v>-1061.529884801431</v>
       </c>
       <c r="J14">
-        <v>1432.090569817292</v>
+        <v>1443.100704479845</v>
       </c>
       <c r="K14">
-        <v>2747.747220304275</v>
+        <v>2637.188577860202</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.2948859824519</v>
+        <v>101.3804623646521</v>
       </c>
       <c r="G15">
-        <v>-0.9255797504736366</v>
+        <v>-0.9024138628401464</v>
       </c>
       <c r="H15">
-        <v>1344.703534645412</v>
+        <v>1400.218791088389</v>
       </c>
       <c r="I15">
-        <v>-1039.717853957544</v>
+        <v>-1053.991000239637</v>
       </c>
       <c r="J15">
-        <v>1333.418920925606</v>
+        <v>1308.734392720921</v>
       </c>
       <c r="K15">
-        <v>2644.106861635273</v>
+        <v>2729.257318678061</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.56519670100725</v>
+        <v>94.54868735441988</v>
       </c>
       <c r="G16">
-        <v>16.27388748343628</v>
+        <v>15.43198662379139</v>
       </c>
       <c r="H16">
-        <v>1439.963371633041</v>
+        <v>1382.350084830701</v>
       </c>
       <c r="I16">
-        <v>-975.8765960338802</v>
+        <v>-973.320822786346</v>
       </c>
       <c r="J16">
-        <v>1314.740507800808</v>
+        <v>1340.835949168401</v>
       </c>
       <c r="K16">
-        <v>2895.982331845489</v>
+        <v>2786.04245210913</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>87.56358445173623</v>
+        <v>87.81775525305031</v>
       </c>
       <c r="G17">
-        <v>31.01577912504845</v>
+        <v>30.74765165060565</v>
       </c>
       <c r="H17">
-        <v>1431.70104330055</v>
+        <v>1509.533575080383</v>
       </c>
       <c r="I17">
-        <v>-924.4173783464391</v>
+        <v>-1003.318848599994</v>
       </c>
       <c r="J17">
-        <v>1243.195612316334</v>
+        <v>1276.489073163583</v>
       </c>
       <c r="K17">
-        <v>2850.444055932337</v>
+        <v>3029.762643748762</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.54844039518119</v>
+        <v>81.33501684229725</v>
       </c>
       <c r="G18">
-        <v>49.945769055983</v>
+        <v>48.54557121603</v>
       </c>
       <c r="H18">
-        <v>1496.143980052765</v>
+        <v>1545.727685202473</v>
       </c>
       <c r="I18">
-        <v>-954.9719621208754</v>
+        <v>-903.9174422857942</v>
       </c>
       <c r="J18">
-        <v>1231.379930854132</v>
+        <v>1213.194936293363</v>
       </c>
       <c r="K18">
-        <v>2900.876445722929</v>
+        <v>3085.172978531621</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.66367446481502</v>
+        <v>80.12366569092225</v>
       </c>
       <c r="G19">
-        <v>66.96253194284992</v>
+        <v>62.41186297468325</v>
       </c>
       <c r="H19">
-        <v>1520.150544757516</v>
+        <v>1510.708702428733</v>
       </c>
       <c r="I19">
-        <v>-927.7037541299361</v>
+        <v>-897.1697273766416</v>
       </c>
       <c r="J19">
-        <v>1146.348280575546</v>
+        <v>1228.248308398705</v>
       </c>
       <c r="K19">
-        <v>2977.591399408415</v>
+        <v>3178.820371015393</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.56244156609367</v>
+        <v>75.01802366870342</v>
       </c>
       <c r="G20">
-        <v>83.38597655150554</v>
+        <v>78.19248208089319</v>
       </c>
       <c r="H20">
-        <v>1586.93761833671</v>
+        <v>1572.590495979091</v>
       </c>
       <c r="I20">
-        <v>-862.1845989394794</v>
+        <v>-879.683962437286</v>
       </c>
       <c r="J20">
-        <v>1142.073395073246</v>
+        <v>1082.768311322123</v>
       </c>
       <c r="K20">
-        <v>3194.213621433124</v>
+        <v>3281.026925818162</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.78906960449807</v>
+        <v>73.64968712099575</v>
       </c>
       <c r="G21">
-        <v>97.97750430157895</v>
+        <v>100.8158100628554</v>
       </c>
       <c r="H21">
-        <v>1522.379650677993</v>
+        <v>1532.405311669315</v>
       </c>
       <c r="I21">
-        <v>-769.7964092610031</v>
+        <v>-771.8049844114837</v>
       </c>
       <c r="J21">
-        <v>1097.242353697093</v>
+        <v>1113.892884727502</v>
       </c>
       <c r="K21">
-        <v>3273.169601013479</v>
+        <v>3040.092483993307</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.150661214417</v>
+        <v>69.92674842190092</v>
       </c>
       <c r="G22">
-        <v>110.191313993598</v>
+        <v>115.0718354805772</v>
       </c>
       <c r="H22">
-        <v>1623.639817482582</v>
+        <v>1655.958949805602</v>
       </c>
       <c r="I22">
-        <v>-778.2335336745542</v>
+        <v>-720.3802462455136</v>
       </c>
       <c r="J22">
-        <v>1074.201472338796</v>
+        <v>976.0044095217448</v>
       </c>
       <c r="K22">
-        <v>3295.714549178229</v>
+        <v>3248.28257401477</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.84184936110556</v>
+        <v>63.44516668755328</v>
       </c>
       <c r="G23">
-        <v>132.3531988384132</v>
+        <v>129.0662509702236</v>
       </c>
       <c r="H23">
-        <v>1673.962991305966</v>
+        <v>1581.730513071342</v>
       </c>
       <c r="I23">
-        <v>-705.1928708201585</v>
+        <v>-667.1603453891873</v>
       </c>
       <c r="J23">
-        <v>990.3747505461914</v>
+        <v>936.5568390571497</v>
       </c>
       <c r="K23">
-        <v>3069.853684456065</v>
+        <v>3336.338668118584</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.4168112465666</v>
+        <v>63.71749770044508</v>
       </c>
       <c r="G24">
-        <v>142.6968222815251</v>
+        <v>152.4204897562948</v>
       </c>
       <c r="H24">
-        <v>1727.387723219803</v>
+        <v>1593.328654147798</v>
       </c>
       <c r="I24">
-        <v>-665.2780942896144</v>
+        <v>-663.1332350521714</v>
       </c>
       <c r="J24">
-        <v>974.7206804253969</v>
+        <v>904.5562542307406</v>
       </c>
       <c r="K24">
-        <v>3240.737470738161</v>
+        <v>3229.846999815201</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.60940365232102</v>
+        <v>61.60418375857125</v>
       </c>
       <c r="G25">
-        <v>157.8431102850569</v>
+        <v>157.9519932073134</v>
       </c>
       <c r="H25">
-        <v>1642.491954621574</v>
+        <v>1716.074201626156</v>
       </c>
       <c r="I25">
-        <v>-607.3608027047123</v>
+        <v>-591.3812626550178</v>
       </c>
       <c r="J25">
-        <v>890.7187889612152</v>
+        <v>895.6160272856615</v>
       </c>
       <c r="K25">
-        <v>3081.440452428304</v>
+        <v>3146.519176196681</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.44325774088897</v>
+        <v>58.63042820931661</v>
       </c>
       <c r="G26">
-        <v>187.8625583900747</v>
+        <v>172.6077747715122</v>
       </c>
       <c r="H26">
-        <v>1662.206165476321</v>
+        <v>1624.496445128106</v>
       </c>
       <c r="I26">
-        <v>-559.3152446893841</v>
+        <v>-545.734519877934</v>
       </c>
       <c r="J26">
-        <v>873.705473298221</v>
+        <v>843.4976121490648</v>
       </c>
       <c r="K26">
-        <v>3161.567277831906</v>
+        <v>3079.763308967954</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.13348646582788</v>
+        <v>60.34274853899326</v>
       </c>
       <c r="G27">
-        <v>202.5358021131512</v>
+        <v>192.3119915693753</v>
       </c>
       <c r="H27">
-        <v>1664.968406489386</v>
+        <v>1743.945686360181</v>
       </c>
       <c r="I27">
-        <v>-500.8173266368449</v>
+        <v>-492.7577654184074</v>
       </c>
       <c r="J27">
-        <v>803.2990996894642</v>
+        <v>779.5591498456313</v>
       </c>
       <c r="K27">
-        <v>3110.086098375653</v>
+        <v>3191.641886345537</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.65660377669885</v>
+        <v>54.31741087162681</v>
       </c>
       <c r="G28">
-        <v>213.6462002503582</v>
+        <v>210.5110841460283</v>
       </c>
       <c r="H28">
-        <v>1669.324932344152</v>
+        <v>1695.622174633407</v>
       </c>
       <c r="I28">
-        <v>-420.8004783712369</v>
+        <v>-422.3021225928215</v>
       </c>
       <c r="J28">
-        <v>711.4106081379224</v>
+        <v>721.1374547322807</v>
       </c>
       <c r="K28">
-        <v>3060.894167975347</v>
+        <v>2872.334100623932</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.99874973170842</v>
+        <v>55.57533990120594</v>
       </c>
       <c r="G29">
-        <v>236.0692784581881</v>
+        <v>226.000917356587</v>
       </c>
       <c r="H29">
-        <v>1808.451141163476</v>
+        <v>1664.332641375037</v>
       </c>
       <c r="I29">
-        <v>-383.0588809982749</v>
+        <v>-383.2155625378857</v>
       </c>
       <c r="J29">
-        <v>675.0098774665913</v>
+        <v>712.7361369198001</v>
       </c>
       <c r="K29">
-        <v>2970.069526965935</v>
+        <v>2808.222769389274</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.92325122402381</v>
+        <v>54.48804869771458</v>
       </c>
       <c r="G30">
-        <v>246.6760121491749</v>
+        <v>256.8985578052043</v>
       </c>
       <c r="H30">
-        <v>1829.192528182912</v>
+        <v>1796.364357877829</v>
       </c>
       <c r="I30">
-        <v>-318.5693847703054</v>
+        <v>-313.3970713936866</v>
       </c>
       <c r="J30">
-        <v>616.611749093893</v>
+        <v>609.3582027052539</v>
       </c>
       <c r="K30">
-        <v>2691.497684391602</v>
+        <v>2789.287052629837</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.79924812191467</v>
+        <v>52.97410733890612</v>
       </c>
       <c r="G31">
-        <v>275.9779928014408</v>
+        <v>265.3740231163371</v>
       </c>
       <c r="H31">
-        <v>1732.690712869533</v>
+        <v>1739.449032262587</v>
       </c>
       <c r="I31">
-        <v>-272.518980081661</v>
+        <v>-265.5996648692093</v>
       </c>
       <c r="J31">
-        <v>567.8803584898205</v>
+        <v>614.2617013018402</v>
       </c>
       <c r="K31">
-        <v>2716.101640586578</v>
+        <v>2757.702114060764</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.35442375878902</v>
+        <v>51.50112556274631</v>
       </c>
       <c r="G32">
-        <v>274.1039352480182</v>
+        <v>292.599300030347</v>
       </c>
       <c r="H32">
-        <v>1777.426378470994</v>
+        <v>1737.046172319584</v>
       </c>
       <c r="I32">
-        <v>-202.3897570154527</v>
+        <v>-216.2740264928429</v>
       </c>
       <c r="J32">
-        <v>554.2191300799752</v>
+        <v>532.5542996122072</v>
       </c>
       <c r="K32">
-        <v>2580.545232095596</v>
+        <v>2426.797683151517</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.01369241503726</v>
+        <v>48.49336447097654</v>
       </c>
       <c r="G33">
-        <v>296.9487230017723</v>
+        <v>288.2640192249547</v>
       </c>
       <c r="H33">
-        <v>1738.648101160893</v>
+        <v>1870.98758849003</v>
       </c>
       <c r="I33">
-        <v>-144.6943182013556</v>
+        <v>-149.0674025636366</v>
       </c>
       <c r="J33">
-        <v>480.5219254238826</v>
+        <v>478.0419656069316</v>
       </c>
       <c r="K33">
-        <v>2475.269271111151</v>
+        <v>2394.171234691931</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>46.79924260533445</v>
+        <v>47.32605702959003</v>
       </c>
       <c r="G34">
-        <v>301.6637783995652</v>
+        <v>304.7678980062357</v>
       </c>
       <c r="H34">
-        <v>1891.874961152005</v>
+        <v>1738.085926473166</v>
       </c>
       <c r="I34">
-        <v>-79.2894983245493</v>
+        <v>-85.63686252893658</v>
       </c>
       <c r="J34">
-        <v>463.8904982489024</v>
+        <v>452.5409915121808</v>
       </c>
       <c r="K34">
-        <v>2183.760709156533</v>
+        <v>2284.645225868764</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.48961508375584</v>
+        <v>48.0532417089001</v>
       </c>
       <c r="G35">
-        <v>323.6272867897409</v>
+        <v>331.0555672935543</v>
       </c>
       <c r="H35">
-        <v>1882.21963618142</v>
+        <v>1760.123600089602</v>
       </c>
       <c r="I35">
-        <v>-19.26233975417426</v>
+        <v>-18.84726443294405</v>
       </c>
       <c r="J35">
-        <v>394.6171684917323</v>
+        <v>375.46737724834</v>
       </c>
       <c r="K35">
-        <v>1947.780419146397</v>
+        <v>1972.013486258838</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.66584730238886</v>
+        <v>45.38622498991867</v>
       </c>
       <c r="G36">
-        <v>350.8290163946273</v>
+        <v>346.2547215692363</v>
       </c>
       <c r="H36">
-        <v>1839.755145416226</v>
+        <v>1837.861943032426</v>
       </c>
       <c r="I36">
-        <v>47.4616220008928</v>
+        <v>48.15215048206912</v>
       </c>
       <c r="J36">
-        <v>357.4673880916542</v>
+        <v>332.7417324626643</v>
       </c>
       <c r="K36">
-        <v>1804.246682795694</v>
+        <v>1816.958689374251</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.00979912980723</v>
+        <v>44.40139509378384</v>
       </c>
       <c r="G37">
-        <v>352.3002089070444</v>
+        <v>377.0519293121184</v>
       </c>
       <c r="H37">
-        <v>1767.163607325516</v>
+        <v>1825.755903420847</v>
       </c>
       <c r="I37">
-        <v>116.9687376510051</v>
+        <v>120.3123394803025</v>
       </c>
       <c r="J37">
-        <v>307.2275286051665</v>
+        <v>298.1501559638761</v>
       </c>
       <c r="K37">
-        <v>1564.086200283247</v>
+        <v>1601.513005514887</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.65974783224687</v>
+        <v>46.8364820757001</v>
       </c>
       <c r="G38">
-        <v>367.5343241386033</v>
+        <v>373.2870431563543</v>
       </c>
       <c r="H38">
-        <v>1843.659016451498</v>
+        <v>1833.000425539832</v>
       </c>
       <c r="I38">
-        <v>193.648473680853</v>
+        <v>177.9369280473653</v>
       </c>
       <c r="J38">
-        <v>246.5960730116231</v>
+        <v>246.1925357642518</v>
       </c>
       <c r="K38">
-        <v>1457.767672049868</v>
+        <v>1427.224973482907</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.9331001177689</v>
+        <v>44.75048136311423</v>
       </c>
       <c r="G39">
-        <v>389.4767130086354</v>
+        <v>408.9434420028618</v>
       </c>
       <c r="H39">
-        <v>1856.822604489497</v>
+        <v>1797.962211124155</v>
       </c>
       <c r="I39">
-        <v>246.3715651671537</v>
+        <v>249.8015257665398</v>
       </c>
       <c r="J39">
-        <v>203.293443127855</v>
+        <v>200.1327803549063</v>
       </c>
       <c r="K39">
-        <v>1100.564926651982</v>
+        <v>1193.990480189251</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.33987447913053</v>
+        <v>45.83871250535471</v>
       </c>
       <c r="G40">
-        <v>419.9917571776753</v>
+        <v>428.910756421188</v>
       </c>
       <c r="H40">
-        <v>1957.670869777219</v>
+        <v>1816.052574703302</v>
       </c>
       <c r="I40">
-        <v>325.895358225178</v>
+        <v>330.8743703627532</v>
       </c>
       <c r="J40">
-        <v>145.976612148048</v>
+        <v>156.4551838239526</v>
       </c>
       <c r="K40">
-        <v>865.7400469075171</v>
+        <v>883.4052734830354</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.85856578500954</v>
+        <v>42.92196563822652</v>
       </c>
       <c r="G41">
-        <v>437.6416656523759</v>
+        <v>429.8295794990012</v>
       </c>
       <c r="H41">
-        <v>1809.976436156511</v>
+        <v>1930.004881572397</v>
       </c>
       <c r="I41">
-        <v>386.0548733260977</v>
+        <v>418.5333664225012</v>
       </c>
       <c r="J41">
-        <v>99.41112338015756</v>
+        <v>107.3884684710635</v>
       </c>
       <c r="K41">
-        <v>601.7274564389724</v>
+        <v>611.5511958161946</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.70963281993836</v>
+        <v>41.76940100044609</v>
       </c>
       <c r="G42">
-        <v>434.3714945332035</v>
+        <v>439.9649191645291</v>
       </c>
       <c r="H42">
-        <v>1925.796726286078</v>
+        <v>1934.483515294776</v>
       </c>
       <c r="I42">
-        <v>466.1876657514536</v>
+        <v>503.4172563648179</v>
       </c>
       <c r="J42">
-        <v>54.50106123379278</v>
+        <v>53.19193940893535</v>
       </c>
       <c r="K42">
-        <v>338.9735198339019</v>
+        <v>325.0713172249973</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.83203439436961</v>
+        <v>42.04101362920218</v>
       </c>
       <c r="G43">
-        <v>471.4034548904562</v>
+        <v>449.2800224486718</v>
       </c>
       <c r="H43">
-        <v>1941.105624337616</v>
+        <v>1874.007656144884</v>
       </c>
       <c r="I43">
-        <v>555.2648555112888</v>
+        <v>552.5967394064071</v>
       </c>
       <c r="J43">
-        <v>5.081613658192964</v>
+        <v>5.544262229868035</v>
       </c>
       <c r="K43">
-        <v>34.87978219518828</v>
+        <v>34.46255529741699</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.82892370045342</v>
+        <v>41.57071580031263</v>
       </c>
       <c r="G44">
-        <v>483.6645738522028</v>
+        <v>465.2336692311857</v>
       </c>
       <c r="H44">
-        <v>1941.786776862781</v>
+        <v>1882.048846749984</v>
       </c>
       <c r="I44">
-        <v>621.5848054371243</v>
+        <v>616.8623070503791</v>
       </c>
       <c r="J44">
-        <v>-43.8362116170518</v>
+        <v>-43.69743724930772</v>
       </c>
       <c r="K44">
-        <v>-280.1445295108846</v>
+        <v>-296.2244494965428</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.50659505136033</v>
+        <v>42.90614116740357</v>
       </c>
       <c r="G45">
-        <v>499.405501999808</v>
+        <v>504.6080167842412</v>
       </c>
       <c r="H45">
-        <v>1857.217337702857</v>
+        <v>1821.705646777797</v>
       </c>
       <c r="I45">
-        <v>739.4600754182421</v>
+        <v>685.6184671794456</v>
       </c>
       <c r="J45">
-        <v>-91.55095100633407</v>
+        <v>-90.41991434250276</v>
       </c>
       <c r="K45">
-        <v>-624.9495020683092</v>
+        <v>-640.5918305328163</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.97778506647056</v>
+        <v>39.06864236222311</v>
       </c>
       <c r="G46">
-        <v>521.3652434561711</v>
+        <v>495.3392200367064</v>
       </c>
       <c r="H46">
-        <v>1861.508435035397</v>
+        <v>1951.680033793151</v>
       </c>
       <c r="I46">
-        <v>773.2731659777976</v>
+        <v>826.5967427702434</v>
       </c>
       <c r="J46">
-        <v>-146.2227249364581</v>
+        <v>-135.8950826990478</v>
       </c>
       <c r="K46">
-        <v>-967.423233754962</v>
+        <v>-996.561407909175</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.29483133876103</v>
+        <v>40.88069575165412</v>
       </c>
       <c r="G47">
-        <v>529.9149961368806</v>
+        <v>501.9578160171426</v>
       </c>
       <c r="H47">
-        <v>1971.880803062402</v>
+        <v>1838.870218440895</v>
       </c>
       <c r="I47">
-        <v>867.985475315665</v>
+        <v>906.2006153998797</v>
       </c>
       <c r="J47">
-        <v>-188.7132393556579</v>
+        <v>-191.0309503283819</v>
       </c>
       <c r="K47">
-        <v>-1354.292220673375</v>
+        <v>-1349.650170111873</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.44459125406311</v>
+        <v>39.48107499400043</v>
       </c>
       <c r="G48">
-        <v>547.4278131478866</v>
+        <v>562.8158905420017</v>
       </c>
       <c r="H48">
-        <v>1978.596550625556</v>
+        <v>1990.895028018479</v>
       </c>
       <c r="I48">
-        <v>1000.588362588708</v>
+        <v>1015.9389197046</v>
       </c>
       <c r="J48">
-        <v>-230.5191984763403</v>
+        <v>-249.2397705173639</v>
       </c>
       <c r="K48">
-        <v>-1753.117269111732</v>
+        <v>-1636.909883735169</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.75192850082628</v>
+        <v>37.02190498395034</v>
       </c>
       <c r="G49">
-        <v>544.3693380520101</v>
+        <v>553.4955740926738</v>
       </c>
       <c r="H49">
-        <v>2020.241774202647</v>
+        <v>2002.83129260611</v>
       </c>
       <c r="I49">
-        <v>1075.002534837694</v>
+        <v>1041.941810763825</v>
       </c>
       <c r="J49">
-        <v>-273.3441179930684</v>
+        <v>-275.1234465366396</v>
       </c>
       <c r="K49">
-        <v>-2195.848238116402</v>
+        <v>-2162.110591738077</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.09402341617646</v>
+        <v>37.80471730415785</v>
       </c>
       <c r="G50">
-        <v>565.6644954865295</v>
+        <v>601.8034803251562</v>
       </c>
       <c r="H50">
-        <v>2035.899777402771</v>
+        <v>2015.702266163522</v>
       </c>
       <c r="I50">
-        <v>1115.579477644772</v>
+        <v>1182.618311623021</v>
       </c>
       <c r="J50">
-        <v>-322.0140963441586</v>
+        <v>-324.9806942937518</v>
       </c>
       <c r="K50">
-        <v>-2577.849175418385</v>
+        <v>-2539.95491112888</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.44587758399636</v>
+        <v>36.72998320325119</v>
       </c>
       <c r="G51">
-        <v>588.1877066473153</v>
+        <v>601.5415361739742</v>
       </c>
       <c r="H51">
-        <v>1890.884915271522</v>
+        <v>2004.057909986885</v>
       </c>
       <c r="I51">
-        <v>1264.699151858349</v>
+        <v>1252.750259517021</v>
       </c>
       <c r="J51">
-        <v>-366.5913617554029</v>
+        <v>-368.2195366381483</v>
       </c>
       <c r="K51">
-        <v>-2919.431299648266</v>
+        <v>-3068.097904643377</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.25506016809339</v>
+        <v>38.71465350352497</v>
       </c>
       <c r="G52">
-        <v>590.9171222217257</v>
+        <v>638.483584464271</v>
       </c>
       <c r="H52">
-        <v>1938.078915789545</v>
+        <v>1931.427981678173</v>
       </c>
       <c r="I52">
-        <v>1420.14797258417</v>
+        <v>1373.70825927987</v>
       </c>
       <c r="J52">
-        <v>-416.4322323839615</v>
+        <v>-432.27341923106</v>
       </c>
       <c r="K52">
-        <v>-3284.0525532961</v>
+        <v>-3393.204612992957</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.67762504643725</v>
+        <v>37.13358335775118</v>
       </c>
       <c r="G53">
-        <v>636.2120738614494</v>
+        <v>655.7788844609067</v>
       </c>
       <c r="H53">
-        <v>1969.985833964149</v>
+        <v>1919.494835410054</v>
       </c>
       <c r="I53">
-        <v>1516.791271528722</v>
+        <v>1416.177840392529</v>
       </c>
       <c r="J53">
-        <v>-499.3678942723399</v>
+        <v>-490.1468649785978</v>
       </c>
       <c r="K53">
-        <v>-3825.665203734807</v>
+        <v>-3663.783280972523</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>34.94553963435393</v>
+        <v>35.58081365207553</v>
       </c>
       <c r="G54">
-        <v>674.3249956315335</v>
+        <v>656.5194300692137</v>
       </c>
       <c r="H54">
-        <v>2019.228447045644</v>
+        <v>1998.699547963435</v>
       </c>
       <c r="I54">
-        <v>1617.43805771522</v>
+        <v>1505.085723906702</v>
       </c>
       <c r="J54">
-        <v>-507.9137639452257</v>
+        <v>-504.284688218145</v>
       </c>
       <c r="K54">
-        <v>-4277.342887946195</v>
+        <v>-4103.579707436437</v>
       </c>
     </row>
   </sheetData>
